--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Cruz\Documents\GitHub\ReFrameWork\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ReFramework Introduction Demo Project\REFramework\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6F0680-7CBF-4976-9863-5109C4AA17F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5769DCE-13EF-46A4-A994-B1C961D4F6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,24 @@
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with application exception. Must be integer</t>
   </si>
   <si>
+    <t>TimeoutShort</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for activities which are likely to fail. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutMedium</t>
+  </si>
+  <si>
+    <t>Timeout medium value in milliseconds. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutLong</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
+  </si>
+  <si>
     <t>ExScreenshotsFolderPath</t>
   </si>
   <si>
@@ -54,6 +72,42 @@
     <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
   </si>
   <si>
+    <t>DelayShort</t>
+  </si>
+  <si>
+    <t>Delay short value in milliseconds, for activities where it is necessary to wait a little. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayMedium</t>
+  </si>
+  <si>
+    <t>Delay medium value in milliseconds, for activities where it is necessary to wait a moderate amount of time. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayLong</t>
+  </si>
+  <si>
+    <t>Delay long value in milliseconds, for activities where it is necessary to wait a long time. Must be integer</t>
+  </si>
+  <si>
+    <t>AccuracyLow</t>
+  </si>
+  <si>
+    <t>Image accuracy low value, for images that have high contrast. Must be double</t>
+  </si>
+  <si>
+    <t>AccuracyMedium</t>
+  </si>
+  <si>
+    <t>Image accuracy medium value, for images that have normal contrast. Must be double</t>
+  </si>
+  <si>
+    <t>AccuracyHigh</t>
+  </si>
+  <si>
+    <t>Image accuracy high value, for images that have low contrast. Must be double</t>
+  </si>
+  <si>
     <t>LogMessage_GetTransactionData</t>
   </si>
   <si>
@@ -108,23 +162,35 @@
     <t>Framework</t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
+    <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
+  </si>
+  <si>
+    <t>Orchestrator Demo queue</t>
+  </si>
+  <si>
+    <t>UiDemoApplicationPath</t>
+  </si>
+  <si>
+    <t>The path to UiDemo application</t>
+  </si>
+  <si>
+    <t>UiDemoCredential</t>
+  </si>
+  <si>
+    <t>UiDemoCredentialName</t>
+  </si>
+  <si>
+    <t>TransactionQueue</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Desktop\UiDemo.exe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,18 +201,6 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,13 +223,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -191,9 +244,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -231,7 +284,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -337,7 +390,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -489,12 +542,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="1" max="1" width="68" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
     <col min="3" max="3" width="68.5703125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -535,30 +590,47 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1550,22 +1622,20 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -1621,90 +1691,180 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6">
+        <v>30000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
         <v>11</v>
+      </c>
+      <c r="B7">
+        <v>120000</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>15000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>60000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15">
+        <v>0.6</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0.9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2661,8 +2821,19 @@
     <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2671,14 +2842,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3715,7 +3885,6 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ReFramework Introduction Demo Project\REFramework\RoboticEnterpriseFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\UiPath\Auto_Transactions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5769DCE-13EF-46A4-A994-B1C961D4F6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA8D70-0EBF-48DD-AE04-B10FAF2C65C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -180,10 +180,10 @@
     <t>UiDemoCredentialName</t>
   </si>
   <si>
-    <t>TransactionQueue</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Desktop\UiDemo.exe</t>
+    <t>TestQueue</t>
+  </si>
+  <si>
+    <t>D:\Документы\UiPath\RoboticEnterpriseFramework\files\UiDemo.exe</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
